--- a/template/BulkUpload.xlsx
+++ b/template/BulkUpload.xlsx
@@ -1,43 +1,930 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="297">
+  <si>
+    <t>Sender Address Name</t>
+  </si>
+  <si>
+    <t>Sender City</t>
+  </si>
+  <si>
+    <t>Sender Country</t>
+  </si>
+  <si>
+    <t>Sender  Address</t>
+  </si>
+  <si>
+    <t>Sender Postal Code</t>
+  </si>
+  <si>
+    <t>Sender Email</t>
+  </si>
+  <si>
+    <t>Sender Mobile</t>
+  </si>
+  <si>
+    <t>Receiver Address Name</t>
+  </si>
+  <si>
+    <t>Receiver City</t>
+  </si>
+  <si>
+    <t>Receiver Country</t>
+  </si>
+  <si>
+    <t>Receiver Address</t>
+  </si>
+  <si>
+    <t>Receiver Postal Code</t>
+  </si>
+  <si>
+    <t>Receiver Email</t>
+  </si>
+  <si>
+    <t>Receiver Mobile No</t>
+  </si>
+  <si>
+    <t>Consignment Title</t>
+  </si>
+  <si>
+    <t>Consignment Type</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Breath</t>
+  </si>
+  <si>
+    <t>Total Packages</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Contact Person Name</t>
+  </si>
+  <si>
+    <t>Contact Person Mobile</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Consignment Types</t>
+  </si>
+  <si>
+    <t>Payment Types</t>
+  </si>
+  <si>
+    <t>Cash on Delivery</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegowina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo, the Democratic Repblic of the</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia (Hrvatska)</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard and Mc Donald Islans</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia, The Former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint LUCIA</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia (Slovak Republic)</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>St. Helena</t>
+  </si>
+  <si>
+    <t>St. Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna Islands</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Lahore Ware House</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Lahore Civil Road</t>
+  </si>
+  <si>
+    <t>aliraza@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karachi Port Basin </t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Faisal Road</t>
+  </si>
+  <si>
+    <t>Sadaqat@gmail.com</t>
+  </si>
+  <si>
+    <t>Washing Machine Consignment</t>
+  </si>
+  <si>
+    <t>Ali Raza</t>
+  </si>
+  <si>
+    <t>12 2 2016</t>
+  </si>
+  <si>
+    <t>3 46 PM</t>
+  </si>
+  <si>
+    <t>Lahore Ware House 2</t>
+  </si>
+  <si>
+    <t>Karachi Port Basin 2</t>
+  </si>
+  <si>
+    <t>Sender State</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Sender Name</t>
+  </si>
+  <si>
+    <t>Receiver State</t>
+  </si>
+  <si>
+    <t>Sindh</t>
+  </si>
+  <si>
+    <t>Receiver Name</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>Receiver Reference</t>
+  </si>
+  <si>
+    <t>Receiver Company</t>
+  </si>
+  <si>
+    <t>Karachi Travels</t>
+  </si>
+  <si>
+    <t>Pickup Time(hh mm AM/PM)</t>
+  </si>
+  <si>
+    <t>Pickup Date (dd mm yyyy)</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>Tax Payer</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Default To Shipper Account</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,17 +947,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -93,44 +986,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -160,12 +1053,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -204,156 +1097,211 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:BV234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" customWidth="1"/>
+    <col min="17" max="18" width="21.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="26" max="28" width="19.140625" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" customWidth="1"/>
+    <col min="30" max="31" width="18.42578125" customWidth="1"/>
+    <col min="32" max="32" width="30.42578125" customWidth="1"/>
+    <col min="33" max="33" width="31.140625" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" customWidth="1"/>
+    <col min="65" max="65" width="22.5703125" customWidth="1"/>
+    <col min="69" max="69" width="18.42578125" customWidth="1"/>
+    <col min="72" max="72" width="25.5703125" customWidth="1"/>
+    <col min="74" max="74" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -361,10 +1309,1574 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2">
+        <v>54000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2">
+        <v>3229815923</v>
+      </c>
+      <c r="J2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2">
+        <v>67000</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S2">
+        <v>433983647</v>
+      </c>
+      <c r="T2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>123</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>765</v>
+      </c>
+      <c r="Y2">
+        <v>34</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>123</v>
+      </c>
+      <c r="AB2">
+        <v>1234</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE2">
+        <v>3229815923</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3">
+        <v>54000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3">
+        <v>3229815923</v>
+      </c>
+      <c r="J3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P3">
+        <v>67000</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S3">
+        <v>433983647</v>
+      </c>
+      <c r="T3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>123</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>765</v>
+      </c>
+      <c r="Y3">
+        <v>34</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>1234</v>
+      </c>
+      <c r="AB3">
+        <v>5433</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE3">
+        <v>3229815923</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>295</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>294</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BQ16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ143" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ145" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ165" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ166" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ169" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ172" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ194" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ195" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ200" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ201" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ207" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ208" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="209" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ209" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ210" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ211" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ212" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ213" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ214" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="215" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ215" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ216" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="217" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ217" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ218" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ219" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="220" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ220" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="221" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ221" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ222" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="223" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ223" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="224" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ224" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="225" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ225" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ226" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="227" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ227" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="228" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ228" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ229" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ230" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="231" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ231" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ232" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="233" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ233" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="234" spans="69:69" x14ac:dyDescent="0.25">
+      <c r="BQ234" t="s">
+        <v>262</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
+      <formula1>$BV$2:$BV$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC1048576">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576 D1:D1048576">
+      <formula1>$BQ$2:$BQ$234</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576">
+      <formula1>$BO$2:$BO$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ1048576">
+      <formula1>$BM$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="Q3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>